--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_12_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_12_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53316.68270869565</v>
+        <v>10610019.85903042</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53316.68270869565</v>
+        <v>10610019.85903042</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23792.07024522775</v>
+        <v>2761790.76350685</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23792.07024522775</v>
+        <v>2761790.76350685</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495300926.820077</v>
+        <v>59555725.20417015</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12221.40797790805</v>
+        <v>1336913.616948529</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23737.96635346553</v>
+        <v>2564133.322839691</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35254.524729023</v>
+        <v>3791353.028730855</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48607.6596540032</v>
+        <v>4875503.167840219</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60555.83776064318</v>
+        <v>6103020.260715884</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72504.01586728315</v>
+        <v>7330537.353591545</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84452.1939739231</v>
+        <v>8558054.446467206</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96400.37208056307</v>
+        <v>9785571.539342863</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109666.0791267554</v>
+        <v>10852323.53057343</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>121614.2572333953</v>
+        <v>12079840.62344909</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133562.4353400353</v>
+        <v>13307357.71632476</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144991.5658368049</v>
+        <v>14517179.27433714</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156508.1242123623</v>
+        <v>15744398.98022831</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169017.2470400937</v>
+        <v>16831306.2475214</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185334.9784953259</v>
+        <v>17450984.72815391</v>
       </c>
     </row>
   </sheetData>
